--- a/Colorado/WaterAllocation/ProcessedInputData/sites_missing.xlsx
+++ b/Colorado/WaterAllocation/ProcessedInputData/sites_missing.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>IncompleteField_2</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UUID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,10 +468,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370</v>
+        <v>8254</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,10 +481,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7121</v>
+        <v>8255</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -487,10 +494,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7814</v>
+        <v>8256</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -499,10 +507,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8366</v>
+        <v>8257</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,10 +520,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8646</v>
+        <v>8258</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -523,10 +533,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9150</v>
+        <v>8259</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -535,10 +546,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12578</v>
+        <v>8260</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -547,10 +559,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12773</v>
+        <v>13310</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -559,10 +572,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12875</v>
+        <v>13311</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -571,10 +585,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12995</v>
+        <v>13314</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -583,10 +598,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13081</v>
+        <v>13315</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -595,10 +611,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13113</v>
+        <v>18348</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -607,10 +624,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13452</v>
+        <v>19293</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -619,10 +637,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15046</v>
+        <v>19309</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -631,10 +650,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15056</v>
+        <v>27427</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -643,10 +663,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15080</v>
+        <v>27486</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -655,10 +676,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15085</v>
+        <v>27493</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -667,10 +689,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15102</v>
+        <v>27496</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -679,10 +702,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15105</v>
+        <v>28670</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -691,10 +715,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15122</v>
+        <v>28671</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -703,10 +728,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15129</v>
+        <v>29698</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -715,10 +741,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15143</v>
+        <v>29699</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -727,10 +754,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15155</v>
+        <v>29700</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -739,10 +767,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15176</v>
+        <v>29701</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,10 +780,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15187</v>
+        <v>33560</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -763,10 +793,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15210</v>
+        <v>33561</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -775,10 +806,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15222</v>
+        <v>33562</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -787,10 +819,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15243</v>
+        <v>33563</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -799,10 +832,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15262</v>
+        <v>36492</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -811,10 +845,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15278</v>
+        <v>37442</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -823,10 +858,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15285</v>
+        <v>37492</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -835,10 +871,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15311</v>
+        <v>39298</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -847,10 +884,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15313</v>
+        <v>39299</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -859,10 +897,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15314</v>
+        <v>39305</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -871,10 +910,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15320</v>
+        <v>39316</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -883,10 +923,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15323</v>
+        <v>39348</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -895,10 +936,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15369</v>
+        <v>39351</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -907,10 +949,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15382</v>
+        <v>39383</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -919,10 +962,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15387</v>
+        <v>39407</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -931,10 +975,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15395</v>
+        <v>39408</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -943,10 +988,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15400</v>
+        <v>39409</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -955,10 +1001,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15422</v>
+        <v>39721</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -967,10 +1014,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15434</v>
+        <v>40643</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -979,10 +1027,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15443</v>
+        <v>40646</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -991,10 +1040,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15454</v>
+        <v>41799</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1003,10 +1053,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15461</v>
+        <v>42920</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1015,10 +1066,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15462</v>
+        <v>43026</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1027,10 +1079,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15486</v>
+        <v>43465</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1039,10 +1092,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15497</v>
+        <v>43514</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1051,10 +1105,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15501</v>
+        <v>44202</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1063,10 +1118,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15523</v>
+        <v>45064</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1075,10 +1131,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15590</v>
+        <v>45973</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1087,10 +1144,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15591</v>
+        <v>45991</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1099,10 +1157,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15594</v>
+        <v>45992</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1111,10 +1170,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>15596</v>
+        <v>46035</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1123,10 +1183,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15622</v>
+        <v>46066</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1135,10 +1196,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>15638</v>
+        <v>46076</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1147,10 +1209,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15653</v>
+        <v>46084</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1159,10 +1222,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15693</v>
+        <v>46103</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1171,10 +1235,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15705</v>
+        <v>46117</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1183,10 +1248,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>15707</v>
+        <v>46160</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1195,10 +1261,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15724</v>
+        <v>46161</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1207,10 +1274,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15734</v>
+        <v>46490</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1219,10 +1287,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>15742</v>
+        <v>46776</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1231,10 +1300,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15757</v>
+        <v>46843</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1243,10 +1313,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>15771</v>
+        <v>46855</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1255,10 +1326,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15784</v>
+        <v>46856</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1267,10 +1339,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15797</v>
+        <v>47561</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1279,10 +1352,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15801</v>
+        <v>48238</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1291,10 +1365,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15818</v>
+        <v>48239</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1303,10 +1378,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15836</v>
+        <v>48240</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1315,10 +1391,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15842</v>
+        <v>48241</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1327,10 +1404,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15862</v>
+        <v>49487</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1339,10 +1417,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15886</v>
+        <v>49553</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1351,10 +1430,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15896</v>
+        <v>49585</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1363,10 +1443,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>15899</v>
+        <v>49623</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1375,10 +1456,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15925</v>
+        <v>49756</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1387,10 +1469,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15935</v>
+        <v>49877</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1399,10 +1482,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>15953</v>
+        <v>49878</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1411,10 +1495,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15986</v>
+        <v>49905</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1423,10 +1508,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15994</v>
+        <v>50073</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1435,10 +1521,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>16003</v>
+        <v>50474</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1447,10 +1534,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>16062</v>
+        <v>50606</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1459,10 +1547,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>16066</v>
+        <v>51076</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1471,10 +1560,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>19460</v>
+        <v>51077</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1483,10 +1573,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>19527</v>
+        <v>51078</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1495,10 +1586,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>19648</v>
+        <v>51080</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1507,10 +1599,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>19787</v>
+        <v>51093</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1519,10 +1612,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>24484</v>
+        <v>51182</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1531,10 +1625,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>26025</v>
+        <v>51522</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1543,10 +1638,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>26228</v>
+        <v>51650</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1555,10 +1651,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>31466</v>
+        <v>51655</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1567,10 +1664,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>32158</v>
+        <v>51679</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1579,10 +1677,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>33159</v>
+        <v>51682</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1591,10 +1690,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>33326</v>
+        <v>51683</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1603,10 +1703,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>33421</v>
+        <v>51833</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1615,10 +1716,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>33854</v>
+        <v>51928</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1627,10 +1729,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>34078</v>
+        <v>52001</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1639,10 +1742,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>35170</v>
+        <v>52002</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1651,10 +1755,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>35998</v>
+        <v>52003</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1663,10 +1768,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>36303</v>
+        <v>52004</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1675,10 +1781,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>36519</v>
+        <v>52005</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1687,10 +1794,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>36964</v>
+        <v>52006</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1699,10 +1807,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>39612</v>
+        <v>52007</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1711,10 +1820,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>39675</v>
+        <v>52008</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1723,10 +1833,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>39824</v>
+        <v>52009</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1735,10 +1846,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>39909</v>
+        <v>52010</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1747,10 +1859,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>42652</v>
+        <v>52011</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1759,10 +1872,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>42911</v>
+        <v>52012</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1771,10 +1885,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>43180</v>
+        <v>52013</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1783,10 +1898,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>43725</v>
+        <v>52099</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1795,10 +1911,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>44958</v>
+        <v>53427</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1807,10 +1924,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>45070</v>
+        <v>53428</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1819,10 +1937,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>45154</v>
+        <v>53437</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1831,10 +1950,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>45235</v>
+        <v>53449</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1843,10 +1963,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>45237</v>
+        <v>60282</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1855,10 +1976,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>45368</v>
+        <v>60488</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1867,10 +1989,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>45575</v>
+        <v>60499</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1879,10 +2002,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>45702</v>
+        <v>60500</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1891,10 +2015,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>45982</v>
+        <v>60591</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1903,10 +2028,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>46097</v>
+        <v>60592</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1915,10 +2041,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>46294</v>
+        <v>60593</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1927,10 +2054,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>46854</v>
+        <v>60594</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1939,10 +2067,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>47384</v>
+        <v>60614</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1951,10 +2080,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>48269</v>
+        <v>60618</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1963,10 +2093,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>49284</v>
+        <v>64808</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1975,10 +2106,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>49924</v>
+        <v>64836</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1987,10 +2119,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>50341</v>
+        <v>65148</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1999,10 +2132,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>51567</v>
+        <v>65157</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2011,10 +2145,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>51838</v>
+        <v>65196</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2023,10 +2158,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>51893</v>
+        <v>65197</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2035,10 +2171,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>51949</v>
+        <v>65239</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2047,10 +2184,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>52223</v>
+        <v>65263</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2059,10 +2197,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>52224</v>
+        <v>65339</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2071,10 +2210,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>52225</v>
+        <v>65340</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2083,10 +2223,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>52227</v>
+        <v>65341</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2095,10 +2236,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>52228</v>
+        <v>65342</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2107,10 +2249,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>52233</v>
+        <v>65366</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2119,10 +2262,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>52236</v>
+        <v>65377</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2131,10 +2275,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>52588</v>
+        <v>65416</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2143,10 +2288,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>52650</v>
+        <v>65417</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2155,10 +2301,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>52697</v>
+        <v>65418</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2167,10 +2314,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>52843</v>
+        <v>65532</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2179,10 +2327,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>52866</v>
+        <v>65538</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2191,10 +2340,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>52942</v>
+        <v>65737</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2203,10 +2353,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>53123</v>
+        <v>65860</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2215,10 +2366,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>53614</v>
+        <v>66303</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2227,10 +2379,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>54010</v>
+        <v>67643</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2239,10 +2392,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>54115</v>
+        <v>67645</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2251,10 +2405,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>54317</v>
+        <v>67647</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2263,10 +2418,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>54519</v>
+        <v>70494</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2275,10 +2431,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>54654</v>
+        <v>70637</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2287,10 +2444,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>54665</v>
+        <v>73516</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2299,10 +2457,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>54749</v>
+        <v>74847</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2311,10 +2470,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>55324</v>
+        <v>75148</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2323,10 +2483,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>55616</v>
+        <v>76261</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2335,10 +2496,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>55790</v>
+        <v>76419</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2347,10 +2509,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>56020</v>
+        <v>77417</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2359,10 +2522,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>56115</v>
+        <v>77536</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2371,10 +2535,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>56194</v>
+        <v>80177</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2383,10 +2548,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>56253</v>
+        <v>80295</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2395,10 +2561,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>56865</v>
+        <v>80391</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2407,10 +2574,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>56927</v>
+        <v>80549</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2419,10 +2587,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>57035</v>
+        <v>80678</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2431,10 +2600,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>57094</v>
+        <v>80993</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2443,10 +2613,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>57392</v>
+        <v>80994</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2455,10 +2626,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>57410</v>
+        <v>80995</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2467,10 +2639,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>57463</v>
+        <v>81290</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2479,10 +2652,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>57510</v>
+        <v>81666</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2491,10 +2665,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>57515</v>
+        <v>81721</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2503,10 +2678,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>57570</v>
+        <v>82087</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2515,10 +2691,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>57607</v>
+        <v>82429</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2527,10 +2704,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>57743</v>
+        <v>82437</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2539,10 +2717,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>57790</v>
+        <v>82441</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2551,10 +2730,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>57818</v>
+        <v>82483</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2563,10 +2743,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>57832</v>
+        <v>82484</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2575,10 +2756,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>57848</v>
+        <v>82660</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2587,10 +2769,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>57873</v>
+        <v>82692</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2599,10 +2782,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>57894</v>
+        <v>82833</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2611,10 +2795,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>57944</v>
+        <v>83073</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2623,10 +2808,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>58007</v>
+        <v>83138</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2635,10 +2821,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>58074</v>
+        <v>83139</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2647,10 +2834,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>58085</v>
+        <v>83368</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2659,10 +2847,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>58112</v>
+        <v>83369</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2671,10 +2860,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>58133</v>
+        <v>83553</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2683,10 +2873,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>58182</v>
+        <v>83569</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2695,10 +2886,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>58214</v>
+        <v>83570</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2707,10 +2899,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>58303</v>
+        <v>83572</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2719,10 +2912,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>59625</v>
+        <v>83575</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2731,10 +2925,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>59811</v>
+        <v>83576</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2743,10 +2938,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>60111</v>
+        <v>83592</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2755,10 +2951,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>60507</v>
+        <v>83593</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2767,10 +2964,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>65465</v>
+        <v>83604</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2779,10 +2977,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>65641</v>
+        <v>84004</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2791,10 +2990,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>65672</v>
+        <v>84509</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2803,10 +3003,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>66741</v>
+        <v>84513</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2815,10 +3016,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>66747</v>
+        <v>84846</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2827,10 +3029,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>66844</v>
+        <v>84847</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2839,10 +3042,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>67340</v>
+        <v>88822</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2851,10 +3055,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>67475</v>
+        <v>88823</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2863,10 +3068,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>67816</v>
+        <v>88827</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2875,10 +3081,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>68004</v>
+        <v>88828</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2887,10 +3094,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>70584</v>
+        <v>90282</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2899,10 +3107,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>70586</v>
+        <v>91766</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2911,10 +3120,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>70587</v>
+        <v>91780</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2923,10 +3133,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>70603</v>
+        <v>95050</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2935,10 +3146,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>70731</v>
+        <v>95291</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2947,10 +3159,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>70758</v>
+        <v>95294</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2959,10 +3172,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>70882</v>
+        <v>95296</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2971,10 +3185,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>70968</v>
+        <v>95316</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2983,10 +3198,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>70972</v>
+        <v>95318</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2995,10 +3211,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>70997</v>
+        <v>95320</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3007,10 +3224,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>71044</v>
+        <v>95322</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3019,10 +3237,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>71201</v>
+        <v>95337</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3031,10 +3250,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>71314</v>
+        <v>95339</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3043,10 +3263,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>71316</v>
+        <v>95340</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3055,10 +3276,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>71318</v>
+        <v>95341</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3067,10 +3289,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>71345</v>
+        <v>95342</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3079,10 +3302,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>71416</v>
+        <v>95343</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3091,10 +3315,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>71465</v>
+        <v>95344</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3103,10 +3328,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>71789</v>
+        <v>95345</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3115,10 +3341,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>71806</v>
+        <v>95346</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3127,10 +3354,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>71986</v>
+        <v>95347</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3139,10 +3367,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>73154</v>
+        <v>95350</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3151,10 +3380,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>73258</v>
+        <v>95541</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3163,10 +3393,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>73970</v>
+        <v>96191</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3175,10 +3406,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>74274</v>
+        <v>96194</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3187,10 +3419,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>76030</v>
+        <v>97928</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3199,10 +3432,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>76138</v>
+        <v>97929</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3211,10 +3445,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>79796</v>
+        <v>100223</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3223,10 +3458,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>81416</v>
+        <v>100520</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3235,10 +3471,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>81595</v>
+        <v>101024</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3247,10 +3484,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>82549</v>
+        <v>101074</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3259,10 +3497,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>82822</v>
+        <v>102378</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3271,10 +3510,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>82911</v>
+        <v>106296</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3283,10 +3523,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>83595</v>
+        <v>106574</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3295,10 +3536,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>85685</v>
+        <v>106575</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3307,10 +3549,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>85688</v>
+        <v>106662</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3319,10 +3562,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>85689</v>
+        <v>106716</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3331,10 +3575,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>85893</v>
+        <v>106735</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3343,10 +3588,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>85992</v>
+        <v>107197</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3355,10 +3601,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>86119</v>
+        <v>107527</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3367,10 +3614,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>86556</v>
+        <v>109098</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3379,10 +3627,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>86702</v>
+        <v>111751</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3391,10 +3640,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>86973</v>
+        <v>111778</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3403,10 +3653,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>87067</v>
+        <v>112987</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3415,10 +3666,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>87184</v>
+        <v>116367</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3427,10 +3679,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>87326</v>
+        <v>116808</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3439,10 +3692,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>87373</v>
+        <v>118493</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3451,10 +3705,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>87531</v>
+        <v>118606</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3463,10 +3718,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>87600</v>
+        <v>118682</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3475,10 +3731,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>87723</v>
+        <v>118683</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3487,10 +3744,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>87800</v>
+        <v>119697</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3499,10 +3757,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>88484</v>
+        <v>119698</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3511,10 +3770,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>88710</v>
+        <v>120308</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3523,10 +3783,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>88831</v>
+        <v>120598</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3535,10 +3796,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>88850</v>
+        <v>120599</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3547,10 +3809,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>88948</v>
+        <v>120600</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3559,10 +3822,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>88956</v>
+        <v>120926</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3571,10 +3835,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>89004</v>
+        <v>120938</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3583,10 +3848,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>89102</v>
+        <v>123042</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3595,10 +3861,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>89166</v>
+        <v>123053</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3607,10 +3874,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>89184</v>
+        <v>123056</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3619,10 +3887,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>89250</v>
+        <v>123060</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3631,10 +3900,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>89255</v>
+        <v>123104</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3643,10 +3913,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>89400</v>
+        <v>123186</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3655,10 +3926,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>89472</v>
+        <v>123473</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3667,10 +3939,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>89595</v>
+        <v>123474</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -3679,10 +3952,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>89654</v>
+        <v>123476</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3691,10 +3965,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>89740</v>
+        <v>124705</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3703,10 +3978,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>89810</v>
+        <v>125040</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3715,10 +3991,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>89830</v>
+        <v>125469</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3727,10 +4004,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>89886</v>
+        <v>125478</v>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3739,10 +4017,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>90436</v>
+        <v>128836</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3751,10 +4030,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>91462</v>
+        <v>129432</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3763,10 +4043,11 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>91481</v>
+        <v>130073</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -3775,10 +4056,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>93783</v>
+        <v>130297</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3787,10 +4069,11 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>93971</v>
+        <v>130438</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3799,10 +4082,11 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>94325</v>
+        <v>131185</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -3811,10 +4095,11 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>94492</v>
+        <v>132106</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3823,10 +4108,11 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>95047</v>
+        <v>132596</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -3835,10 +4121,11 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>95084</v>
+        <v>132597</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3847,10 +4134,11 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>97653</v>
+        <v>132598</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3859,10 +4147,11 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>98013</v>
+        <v>132599</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3871,10 +4160,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>99434</v>
+        <v>132600</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -3883,10 +4173,11 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>100760</v>
+        <v>132601</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3895,10 +4186,11 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>100799</v>
+        <v>132602</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -3907,10 +4199,11 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>100841</v>
+        <v>132603</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -3919,10 +4212,11 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>100848</v>
+        <v>132604</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -3931,10 +4225,11 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>100931</v>
+        <v>132605</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -3943,10 +4238,11 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>100973</v>
+        <v>132606</v>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -3955,10 +4251,11 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>101140</v>
+        <v>132607</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -3967,10 +4264,11 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>101195</v>
+        <v>132608</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -3979,10 +4277,11 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>101219</v>
+        <v>132609</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -3991,10 +4290,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>101263</v>
+        <v>132610</v>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -4003,10 +4303,11 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>101319</v>
+        <v>132611</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4015,10 +4316,11 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>101334</v>
+        <v>132612</v>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4027,10 +4329,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>101354</v>
+        <v>132613</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4039,10 +4342,11 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>101516</v>
+        <v>132614</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4051,10 +4355,11 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>101538</v>
+        <v>132615</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4063,10 +4368,11 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>101582</v>
+        <v>132616</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4075,10 +4381,11 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>101653</v>
+        <v>132617</v>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4087,10 +4394,11 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>101690</v>
+        <v>132618</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4099,10 +4407,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>102454</v>
+        <v>132619</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4111,10 +4420,11 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>102855</v>
+        <v>132620</v>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4123,10 +4433,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>103941</v>
+        <v>132621</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4135,10 +4446,11 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>104234</v>
+        <v>132622</v>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4147,10 +4459,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>106120</v>
+        <v>132623</v>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4159,10 +4472,11 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>106755</v>
+        <v>132624</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4171,10 +4485,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>107495</v>
+        <v>132625</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4183,10 +4498,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>108244</v>
+        <v>132626</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4195,10 +4511,11 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>108271</v>
+        <v>132627</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4207,10 +4524,11 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>112119</v>
+        <v>132628</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4219,10 +4537,11 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>112186</v>
+        <v>132629</v>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4231,10 +4550,11 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>112188</v>
+        <v>132630</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4243,10 +4563,11 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>112244</v>
+        <v>132631</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4255,10 +4576,11 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>112476</v>
+        <v>132632</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4267,10 +4589,11 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>113584</v>
+        <v>132633</v>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4279,10 +4602,11 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>114169</v>
+        <v>132634</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -4291,10 +4615,11 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>115196</v>
+        <v>132635</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4303,10 +4628,11 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>117372</v>
+        <v>132636</v>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4315,10 +4641,11 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>117435</v>
+        <v>132637</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4327,10 +4654,11 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>118640</v>
+        <v>132638</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4339,10 +4667,11 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>122655</v>
+        <v>132639</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4351,10 +4680,11 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>122767</v>
+        <v>132640</v>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4363,10 +4693,11 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>124630</v>
+        <v>132641</v>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4375,10 +4706,11 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>125224</v>
+        <v>132642</v>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4387,10 +4719,11 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>125500</v>
+        <v>132643</v>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -4399,10 +4732,11 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>125592</v>
+        <v>132644</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -4411,10 +4745,11 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>125703</v>
+        <v>132645</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -4423,10 +4758,11 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>125982</v>
+        <v>132646</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -4435,10 +4771,11 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>126140</v>
+        <v>132647</v>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -4447,10 +4784,11 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>126408</v>
+        <v>132648</v>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4459,10 +4797,11 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>126656</v>
+        <v>132649</v>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -4471,10 +4810,11 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>126911</v>
+        <v>132650</v>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -4483,10 +4823,11 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>127240</v>
+        <v>132651</v>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -4495,10 +4836,11 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>127845</v>
+        <v>132652</v>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -4507,10 +4849,11 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>128149</v>
+        <v>132653</v>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -4519,10 +4862,11 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>128203</v>
+        <v>132654</v>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -4531,10 +4875,11 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>128474</v>
+        <v>132655</v>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -4543,10 +4888,11 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>128633</v>
+        <v>132656</v>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -4555,10 +4901,11 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>129025</v>
+        <v>132657</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -4567,10 +4914,11 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>129747</v>
+        <v>132658</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -4579,10 +4927,11 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>129938</v>
+        <v>132659</v>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -4591,10 +4940,11 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>130221</v>
+        <v>132660</v>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -4603,10 +4953,11 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>130417</v>
+        <v>132661</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -4615,10 +4966,11 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>130821</v>
+        <v>132662</v>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -4627,10 +4979,11 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>130958</v>
+        <v>132663</v>
       </c>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -4639,10 +4992,11 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>131423</v>
+        <v>132664</v>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -4651,10 +5005,11 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>131523</v>
+        <v>132665</v>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
